--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -2536,25 +2536,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="28">
@@ -2620,25 +2612,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -10480,25 +10464,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V130" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="131">
@@ -14696,25 +14672,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V184" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2</v>
+      </c>
+      <c r="U184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V184" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="185">
@@ -37028,25 +36996,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S472" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="T472" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U472" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V472" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S472" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T472" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U472" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V472" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -6712,25 +6712,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -27800,25 +27792,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S356" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T356" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U356" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V356" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S356" t="n">
+        <v>2</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U356" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V356" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="357">
@@ -27880,25 +27864,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S357" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T357" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U357" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V357" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+      <c r="S357" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U357" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V357" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="358">
@@ -27960,25 +27936,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S358" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T358" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U358" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V358" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S358" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U358" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V358" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="359">
@@ -28040,25 +28008,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S359" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T359" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U359" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="V359" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+      <c r="S359" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U359" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V359" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="360">
@@ -28120,25 +28080,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S360" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="T360" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="U360" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V360" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S360" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2</v>
+      </c>
+      <c r="V360" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="361">
@@ -28200,25 +28152,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S361" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T361" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U361" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V361" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S361" t="n">
+        <v>2</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U361" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V361" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="362">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -2688,25 +2688,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="30">
@@ -2772,25 +2764,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="31">
@@ -2856,25 +2840,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="32">
@@ -15760,25 +15736,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T198" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U198" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V198" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V198" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="199">
@@ -21504,25 +21472,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T273" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U273" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V273" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S273" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2</v>
+      </c>
+      <c r="V273" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="274">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -19896,25 +19896,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S253" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="T253" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="U253" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V253" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S253" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U253" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V253" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="254">
@@ -19980,25 +19972,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S254" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T254" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U254" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V254" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V254" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="255">
@@ -20068,25 +20052,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S255" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T255" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U255" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V255" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V255" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="256">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -13196,25 +13196,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="U165" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S165" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="166">
@@ -13284,25 +13276,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U166" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V166" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V166" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="167">
@@ -13368,25 +13352,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U167" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V167" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V167" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="168">
@@ -13456,25 +13432,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="U168" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V168" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="169">
@@ -15484,25 +15452,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U194" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S194" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="195">
@@ -15568,25 +15528,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U195" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V195" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S195" t="n">
+        <v>2</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V195" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="196">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -20676,25 +20676,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S263" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="T263" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="U263" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V263" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U263" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -20764,25 +20756,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S264" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T264" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U264" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V264" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S264" t="n">
+        <v>2</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V264" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="265">
@@ -20852,25 +20836,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S265" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T265" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U265" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V265" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V265" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="266">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -10848,25 +10848,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -10932,25 +10924,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="137">
@@ -11016,25 +11000,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S137" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="138">
@@ -11100,25 +11076,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+      <c r="S138" t="n">
+        <v>2</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="139">
@@ -11184,25 +11152,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V139" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V139" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="140">
@@ -11268,25 +11228,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -14016,25 +13968,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U175" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V175" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S175" t="n">
+        <v>2</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2</v>
+      </c>
+      <c r="V175" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="176">
@@ -14104,25 +14048,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V176" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V176" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="177">
@@ -14260,25 +14196,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V178" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V178" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="179">
@@ -16516,25 +16444,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T207" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U207" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V207" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V207" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="208">
@@ -16600,25 +16520,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T208" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V208" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S208" t="n">
+        <v>2</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V208" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="209">
@@ -18468,15 +18380,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S232" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="T232" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
+      <c r="S232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.75</v>
       </c>
       <c r="U232" t="n">
         <v>1.91</v>

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V507"/>
+  <dimension ref="A1:V508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39709,6 +39709,94 @@
         <v>2</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.aiscore.com/match-yaracuyanos-carabobo/oj7x9ix3gpwh47g/h2h</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Venezuela Primera Division</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Yaracuyanos</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>07/24/2025</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L508" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M508" t="n">
+        <v>1</v>
+      </c>
+      <c r="N508" t="n">
+        <v>3</v>
+      </c>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>8</v>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S508" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="T508" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="U508" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="V508" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -11304,25 +11304,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="142">
@@ -14356,25 +14348,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U180" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V180" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S180" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="181">
@@ -14440,25 +14424,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="U181" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V181" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U181" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -16848,25 +16824,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S212" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V212" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="213">
@@ -16936,25 +16904,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S213" t="n">
+        <v>2</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V213" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="214">
@@ -24212,25 +24172,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S308" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T308" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U308" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="V308" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+      <c r="S308" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U308" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V308" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="309">
@@ -40364,25 +40316,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S515" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T515" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U515" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V515" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S515" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T515" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U515" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V515" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="516">
@@ -40452,25 +40396,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S516" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="T516" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="U516" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V516" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S516" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T516" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U516" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V516" t="n">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -3752,25 +3752,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+      <c r="S43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="44">
@@ -15396,25 +15388,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U194" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="195">
@@ -22448,25 +22432,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S285" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="T285" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="U285" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V285" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="S285" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T285" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V285" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="286">
@@ -22532,25 +22508,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S286" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="T286" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="U286" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="V286" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+      <c r="S286" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V286" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="287">
@@ -25416,25 +25384,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S323" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T323" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U323" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V323" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S323" t="n">
+        <v>2</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U323" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V323" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="324">
@@ -33140,25 +33100,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S424" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="T424" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="U424" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V424" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S424" t="n">
+        <v>2</v>
+      </c>
+      <c r="T424" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U424" t="n">
+        <v>2</v>
+      </c>
+      <c r="V424" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="425">
@@ -42208,25 +42160,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S543" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T543" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U543" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V543" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S543" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T543" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U543" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V543" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="544">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -15760,25 +15760,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="U199" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="V199" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+      <c r="S199" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V199" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="200">
@@ -19592,25 +19584,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S248" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="T248" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="U248" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V248" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S248" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V248" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="249">
@@ -19680,25 +19664,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S249" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T249" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U249" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V249" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U249" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -20836,15 +20812,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S264" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T264" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
+      <c r="S264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.85</v>
       </c>
       <c r="U264" t="n">
         <v>1.91</v>
@@ -47012,25 +46984,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S605" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="T605" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="U605" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V605" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="S605" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T605" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U605" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V605" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="606">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V705"/>
+  <dimension ref="A1:V707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,25 +43540,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S561" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="T561" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="U561" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V561" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S561" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T561" t="n">
+        <v>2</v>
+      </c>
+      <c r="U561" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -47232,27 +47224,27 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-new-york-city-fc-toronto-fc/oj7x9inplr8a47g/h2h</t>
+          <t>https://www.aiscore.com/match-hartford-athletic-new-mexico-united/vmqy9il13dmtgk9/h2h</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>United States Major League Soccer</t>
+          <t>USL Championship</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>New York City FC</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>New Mexico United</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>07/03/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -47268,71 +47260,79 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L609" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M609" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N609" t="n">
         <v>4</v>
       </c>
       <c r="O609" t="inlineStr"/>
       <c r="P609" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q609" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S609" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T609" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U609" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V609" t="n">
-        <v>2.1</v>
+      <c r="S609" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="T609" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="U609" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="V609" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-fc-dallas-minnesota-united-fc/527r3in2ze4f47e/h2h</t>
+          <t>https://www.aiscore.com/match-orange-county-blues-fc-phoenix-rising-fc/jr7owirg9n1cgq0/h2h</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>United States Major League Soccer</t>
+          <t>USL Championship</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Orange County Blues FC</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Minnesota United FC</t>
+          <t>Phoenix Rising FC</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>07/04/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -47342,7 +47342,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H610" t="inlineStr"/>
@@ -47353,7 +47353,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L610" t="n">
         <v>9.5</v>
@@ -47362,37 +47362,45 @@
         <v>1</v>
       </c>
       <c r="N610" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O610" t="inlineStr"/>
       <c r="P610" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q610" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S610" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T610" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U610" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V610" t="n">
-        <v>1.83</v>
+      <c r="S610" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="T610" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="U610" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="V610" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-colorado-rapids-sporting-kansas-city/ezk96ix91yea1kn/h2h</t>
+          <t>https://www.aiscore.com/match-new-york-city-fc-toronto-fc/oj7x9inplr8a47g/h2h</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -47402,17 +47410,17 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>07/04/2025</t>
+          <t>07/03/2025</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -47422,18 +47430,18 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L611" t="n">
         <v>9.5</v>
@@ -47442,14 +47450,14 @@
         <v>1</v>
       </c>
       <c r="N611" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O611" t="inlineStr"/>
       <c r="P611" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q611" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
@@ -47463,16 +47471,16 @@
         <v>2.02</v>
       </c>
       <c r="U611" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="V611" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-los-angeles-galaxy-vancouver-whitecaps/ndkz6il409yixq3/h2h</t>
+          <t>https://www.aiscore.com/match-fc-dallas-minnesota-united-fc/527r3in2ze4f47e/h2h</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -47482,12 +47490,12 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Minnesota United FC</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -47513,7 +47521,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L612" t="n">
         <v>9.5</v>
@@ -47526,10 +47534,10 @@
       </c>
       <c r="O612" t="inlineStr"/>
       <c r="P612" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q612" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
@@ -47537,22 +47545,22 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T612" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="U612" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="V612" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-charlotte-fc-orlando-city/527r3in2zm8b47e/h2h</t>
+          <t>https://www.aiscore.com/match-colorado-rapids-sporting-kansas-city/ezk96ix91yea1kn/h2h</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -47562,17 +47570,17 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>07/05/2025</t>
+          <t>07/04/2025</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -47588,7 +47596,7 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J613" t="inlineStr"/>
@@ -47602,14 +47610,14 @@
         <v>1</v>
       </c>
       <c r="N613" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O613" t="inlineStr"/>
       <c r="P613" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q613" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
@@ -47617,22 +47625,22 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="T613" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U613" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V613" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V613" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-fc-cincinnati-chicago-fire/wv78xi89rn9iokr/h2h</t>
+          <t>https://www.aiscore.com/match-los-angeles-galaxy-vancouver-whitecaps/ndkz6il409yixq3/h2h</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -47642,17 +47650,17 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>07/05/2025</t>
+          <t>07/04/2025</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -47668,12 +47676,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L614" t="n">
         <v>9.5</v>
@@ -47686,10 +47694,10 @@
       </c>
       <c r="O614" t="inlineStr"/>
       <c r="P614" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q614" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
@@ -47697,22 +47705,22 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T614" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U614" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="V614" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-montreal-impact-inter-miami-cf/ndkz6il401ebxq3/h2h</t>
+          <t>https://www.aiscore.com/match-charlotte-fc-orlando-city/527r3in2zm8b47e/h2h</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -47722,12 +47730,12 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -47742,7 +47750,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H615" t="inlineStr"/>
@@ -47753,23 +47761,23 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L615" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M615" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N615" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O615" t="inlineStr"/>
       <c r="P615" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q615" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
@@ -47777,22 +47785,22 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T615" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U615" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V615" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-dc-united-atlanta-united/34kgmiz86wybeko/h2h</t>
+          <t>https://www.aiscore.com/match-fc-cincinnati-chicago-fire/wv78xi89rn9iokr/h2h</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -47802,12 +47810,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Atlanta United</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -47833,23 +47841,23 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L616" t="n">
         <v>9.5</v>
       </c>
       <c r="M616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N616" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O616" t="inlineStr"/>
       <c r="P616" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q616" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
@@ -47857,22 +47865,22 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T616" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U616" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V616" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-nashville-philadelphia-union/ndkz6il40gesxq3/h2h</t>
+          <t>https://www.aiscore.com/match-montreal-impact-inter-miami-cf/ndkz6il401ebxq3/h2h</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -47882,12 +47890,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -47913,23 +47921,23 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L617" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M617" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N617" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O617" t="inlineStr"/>
       <c r="P617" t="n">
         <v>7</v>
       </c>
       <c r="Q617" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
@@ -47937,22 +47945,22 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="T617" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="U617" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V617" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-real-salt-lake-st-louis-city-sc/oj7x9inpl9nc47g/h2h</t>
+          <t>https://www.aiscore.com/match-dc-united-atlanta-united/34kgmiz86wybeko/h2h</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -47962,12 +47970,12 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>St. Louis City SC</t>
+          <t>Atlanta United</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -47982,34 +47990,34 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L618" t="n">
         <v>9.5</v>
       </c>
       <c r="M618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N618" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O618" t="inlineStr"/>
       <c r="P618" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q618" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
@@ -48017,22 +48025,22 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="T618" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="U618" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V618" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-san-jose-earthquakes-new-york-red-bulls/jek33iv0wy6f9ko/h2h</t>
+          <t>https://www.aiscore.com/match-nashville-philadelphia-union/ndkz6il40gesxq3/h2h</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -48042,12 +48050,12 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -48062,7 +48070,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H619" t="inlineStr"/>
@@ -48073,20 +48081,20 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L619" t="n">
         <v>9.5</v>
       </c>
       <c r="M619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N619" t="n">
         <v>1</v>
-      </c>
-      <c r="N619" t="n">
-        <v>2</v>
       </c>
       <c r="O619" t="inlineStr"/>
       <c r="P619" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q619" t="n">
         <v>7</v>
@@ -48097,10 +48105,10 @@
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T619" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U619" t="n">
         <v>1.8</v>
@@ -48112,7 +48120,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-portland-timbers-new-england-revolution/ndkz6il40rytxq3/h2h</t>
+          <t>https://www.aiscore.com/match-real-salt-lake-st-louis-city-sc/oj7x9inpl9nc47g/h2h</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -48122,12 +48130,12 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>St. Louis City SC</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -48142,18 +48150,18 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L620" t="n">
         <v>9.5</v>
@@ -48162,14 +48170,14 @@
         <v>2</v>
       </c>
       <c r="N620" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O620" t="inlineStr"/>
       <c r="P620" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q620" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
@@ -48177,10 +48185,10 @@
         </is>
       </c>
       <c r="S620" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T620" t="n">
         <v>1.85</v>
-      </c>
-      <c r="T620" t="n">
-        <v>1.95</v>
       </c>
       <c r="U620" t="n">
         <v>1.83</v>
@@ -48192,7 +48200,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-san-diego-fc-houston-dynamo/jek33iv0we6a9ko/h2h</t>
+          <t>https://www.aiscore.com/match-san-jose-earthquakes-new-york-red-bulls/jek33iv0wy6f9ko/h2h</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -48202,12 +48210,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -48233,23 +48241,23 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L621" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M621" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N621" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O621" t="inlineStr"/>
       <c r="P621" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q621" t="n">
         <v>7</v>
-      </c>
-      <c r="Q621" t="n">
-        <v>12</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
@@ -48263,16 +48271,16 @@
         <v>1.85</v>
       </c>
       <c r="U621" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V621" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-seattle-sounders-columbus-crew/jr7owir94nofgq0/h2h</t>
+          <t>https://www.aiscore.com/match-portland-timbers-new-england-revolution/ndkz6il40rytxq3/h2h</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -48282,17 +48290,17 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>07/06/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -48302,13 +48310,13 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J622" t="inlineStr"/>
@@ -48322,14 +48330,14 @@
         <v>2</v>
       </c>
       <c r="N622" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O622" t="inlineStr"/>
       <c r="P622" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q622" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
@@ -48343,16 +48351,16 @@
         <v>1.95</v>
       </c>
       <c r="U622" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V622" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-new-england-revolution-inter-miami-cf/jek33iv0w5yi9ko/h2h</t>
+          <t>https://www.aiscore.com/match-san-diego-fc-houston-dynamo/jek33iv0we6a9ko/h2h</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -48362,17 +48370,17 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -48382,7 +48390,7 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H623" t="inlineStr"/>
@@ -48393,23 +48401,23 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L623" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M623" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N623" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O623" t="inlineStr"/>
       <c r="P623" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q623" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
@@ -48417,22 +48425,22 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T623" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U623" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V623" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-inter-miami-cf-nashville/527r3in2zjzu47e/h2h</t>
+          <t>https://www.aiscore.com/match-seattle-sounders-columbus-crew/jr7owir94nofgq0/h2h</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -48442,17 +48450,17 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/06/2025</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -48462,34 +48470,34 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L624" t="n">
         <v>9.5</v>
       </c>
       <c r="M624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O624" t="inlineStr"/>
       <c r="P624" t="n">
         <v>4</v>
       </c>
       <c r="Q624" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
@@ -48497,22 +48505,22 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T624" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U624" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V624" t="n">
         <v>1.8</v>
-      </c>
-      <c r="U624" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V624" t="n">
-        <v>1.66</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-philadelphia-union-new-york-red-bulls/edq09i4jz9rfeqx/h2h</t>
+          <t>https://www.aiscore.com/match-new-england-revolution-inter-miami-cf/jek33iv0w5yi9ko/h2h</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -48522,17 +48530,17 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -48542,7 +48550,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H625" t="inlineStr"/>
@@ -48553,7 +48561,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L625" t="n">
         <v>9.5</v>
@@ -48562,14 +48570,14 @@
         <v>2</v>
       </c>
       <c r="N625" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O625" t="inlineStr"/>
       <c r="P625" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q625" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
@@ -48577,22 +48585,22 @@
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="T625" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U625" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V625" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-orlando-city-montreal-impact/ezk96ix91eeu1kn/h2h</t>
+          <t>https://www.aiscore.com/match-inter-miami-cf-nashville/527r3in2zjzu47e/h2h</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -48602,12 +48610,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -48633,7 +48641,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L626" t="n">
         <v>9.5</v>
@@ -48642,14 +48650,14 @@
         <v>1</v>
       </c>
       <c r="N626" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O626" t="inlineStr"/>
       <c r="P626" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q626" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
@@ -48657,22 +48665,22 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T626" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U626" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V626" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-toronto-fc-atlanta-united/jr7owir94vgbgq0/h2h</t>
+          <t>https://www.aiscore.com/match-philadelphia-union-new-york-red-bulls/edq09i4jz9rfeqx/h2h</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -48682,12 +48690,12 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Atlanta United</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -48702,7 +48710,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H627" t="inlineStr"/>
@@ -48719,40 +48727,40 @@
         <v>9.5</v>
       </c>
       <c r="M627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N627" t="n">
         <v>2</v>
       </c>
       <c r="O627" t="inlineStr"/>
       <c r="P627" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q627" t="n">
         <v>6</v>
       </c>
-      <c r="Q627" t="n">
-        <v>8</v>
-      </c>
       <c r="R627" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="S627" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T627" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U627" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V627" t="n">
         <v>1.8</v>
-      </c>
-      <c r="T627" t="n">
-        <v>2</v>
-      </c>
-      <c r="U627" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V627" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-fc-cincinnati-columbus-crew/vrqwnigpjllt4qn/h2h</t>
+          <t>https://www.aiscore.com/match-orlando-city-montreal-impact/ezk96ix91eeu1kn/h2h</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -48762,12 +48770,12 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -48788,28 +48796,28 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L628" t="n">
         <v>9.5</v>
       </c>
       <c r="M628" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N628" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O628" t="inlineStr"/>
       <c r="P628" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q628" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R628" t="inlineStr">
         <is>
@@ -48817,22 +48825,22 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="T628" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="U628" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V628" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-charlotte-fc-new-york-city-fc/l6kegiwd518av75/h2h</t>
+          <t>https://www.aiscore.com/match-toronto-fc-atlanta-united/jr7owir94vgbgq0/h2h</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -48842,12 +48850,12 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>New York City FC</t>
+          <t>Atlanta United</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -48862,34 +48870,34 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L629" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N629" t="n">
         <v>2</v>
       </c>
       <c r="O629" t="inlineStr"/>
       <c r="P629" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q629" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R629" t="inlineStr">
         <is>
@@ -48897,22 +48905,22 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T629" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U629" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V629" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-chicago-fire-san-diego-fc/ndqmli26vdpfrkv/h2h</t>
+          <t>https://www.aiscore.com/match-fc-cincinnati-columbus-crew/vrqwnigpjllt4qn/h2h</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -48922,12 +48930,12 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -48948,25 +48956,25 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L630" t="n">
         <v>9.5</v>
       </c>
       <c r="M630" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N630" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O630" t="inlineStr"/>
       <c r="P630" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q630" t="n">
         <v>8</v>
@@ -48977,22 +48985,22 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T630" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U630" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V630" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-minnesota-united-fc-san-jose-earthquakes/xvkjoi0jpdvc879/h2h</t>
+          <t>https://www.aiscore.com/match-charlotte-fc-new-york-city-fc/l6kegiwd518av75/h2h</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -49002,12 +49010,12 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Minnesota United FC</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -49033,23 +49041,23 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L631" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M631" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N631" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O631" t="inlineStr"/>
       <c r="P631" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q631" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R631" t="inlineStr">
         <is>
@@ -49057,22 +49065,22 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="T631" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="U631" t="n">
+        <v>2</v>
+      </c>
+      <c r="V631" t="n">
         <v>1.72</v>
-      </c>
-      <c r="V631" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-austin-fc-new-england-revolution/m2q15ipl39wfe76/h2h</t>
+          <t>https://www.aiscore.com/match-chicago-fire-san-diego-fc/ndqmli26vdpfrkv/h2h</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -49082,12 +49090,12 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -49102,7 +49110,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H632" t="inlineStr"/>
@@ -49113,23 +49121,23 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L632" t="n">
         <v>9.5</v>
       </c>
       <c r="M632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N632" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q632" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -49137,22 +49145,22 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T632" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U632" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V632" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-sporting-kansas-city-seattle-sounders/j374oioxmn3agqo/h2h</t>
+          <t>https://www.aiscore.com/match-minnesota-united-fc-san-jose-earthquakes/xvkjoi0jpdvc879/h2h</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -49162,12 +49170,12 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Minnesota United FC</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -49182,7 +49190,7 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H633" t="inlineStr"/>
@@ -49193,7 +49201,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L633" t="n">
         <v>9.5</v>
@@ -49206,10 +49214,10 @@
       </c>
       <c r="O633" t="inlineStr"/>
       <c r="P633" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q633" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R633" t="inlineStr">
         <is>
@@ -49217,22 +49225,22 @@
         </is>
       </c>
       <c r="S633" t="n">
+        <v>2</v>
+      </c>
+      <c r="T633" t="n">
         <v>1.8</v>
       </c>
-      <c r="T633" t="n">
-        <v>2</v>
-      </c>
       <c r="U633" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V633" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-colorado-rapids-vancouver-whitecaps/m2q15ipl35wae76/h2h</t>
+          <t>https://www.aiscore.com/match-austin-fc-new-england-revolution/m2q15ipl39wfe76/h2h</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -49242,12 +49250,12 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -49262,34 +49270,34 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L634" t="n">
         <v>9.5</v>
       </c>
       <c r="M634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O634" t="inlineStr"/>
       <c r="P634" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q634" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R634" t="inlineStr">
         <is>
@@ -49297,10 +49305,10 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="T634" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U634" t="n">
         <v>1.72</v>
@@ -49312,7 +49320,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-real-salt-lake-houston-dynamo/o17pjijgd14ay7j/h2h</t>
+          <t>https://www.aiscore.com/match-sporting-kansas-city-seattle-sounders/j374oioxmn3agqo/h2h</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -49322,12 +49330,12 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -49359,17 +49367,17 @@
         <v>9.5</v>
       </c>
       <c r="M635" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N635" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O635" t="inlineStr"/>
       <c r="P635" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q635" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -49377,22 +49385,22 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T635" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U635" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V635" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-los-angeles-galaxy-dc-united/ezk96ix91oec1kn/h2h</t>
+          <t>https://www.aiscore.com/match-colorado-rapids-vancouver-whitecaps/m2q15ipl35wae76/h2h</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -49402,12 +49410,12 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -49422,7 +49430,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H636" t="inlineStr"/>
@@ -49439,17 +49447,17 @@
         <v>9.5</v>
       </c>
       <c r="M636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N636" t="n">
         <v>3</v>
       </c>
       <c r="O636" t="inlineStr"/>
       <c r="P636" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q636" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -49463,16 +49471,16 @@
         <v>2</v>
       </c>
       <c r="U636" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V636" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-los-angeles-fc-fc-dallas/o07dniw9z3oimkn/h2h</t>
+          <t>https://www.aiscore.com/match-real-salt-lake-houston-dynamo/o17pjijgd14ay7j/h2h</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -49482,12 +49490,12 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -49502,7 +49510,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H637" t="inlineStr"/>
@@ -49513,23 +49521,23 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L637" t="n">
         <v>9.5</v>
       </c>
       <c r="M637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O637" t="inlineStr"/>
       <c r="P637" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q637" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
@@ -49537,22 +49545,22 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T637" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U637" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V637" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-st-louis-city-sc-portland-timbers/j374oioxm5zhgqo/h2h</t>
+          <t>https://www.aiscore.com/match-los-angeles-galaxy-dc-united/ezk96ix91oec1kn/h2h</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -49562,17 +49570,17 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>St. Louis City SC</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>07/13/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -49582,7 +49590,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H638" t="inlineStr"/>
@@ -49593,10 +49601,10 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L638" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M638" t="n">
         <v>1</v>
@@ -49609,7 +49617,7 @@
         <v>7</v>
       </c>
       <c r="Q638" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -49617,22 +49625,22 @@
         </is>
       </c>
       <c r="S638" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T638" t="n">
+        <v>2</v>
+      </c>
+      <c r="U638" t="n">
         <v>1.9</v>
       </c>
-      <c r="T638" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U638" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V638" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-new-york-red-bulls-new-england-revolution/l6kegiwd5v1hv75/h2h</t>
+          <t>https://www.aiscore.com/match-los-angeles-fc-fc-dallas/o07dniw9z3oimkn/h2h</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -49642,20 +49650,24 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr"/>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G639" t="inlineStr">
         <is>
           <t>Under</t>
@@ -49669,7 +49681,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L639" t="n">
         <v>9.5</v>
@@ -49678,14 +49690,14 @@
         <v>2</v>
       </c>
       <c r="N639" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O639" t="inlineStr"/>
       <c r="P639" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q639" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -49693,22 +49705,22 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="T639" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="U639" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V639" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-atlanta-united-chicago-fire/wv78xi89rw9aokr/h2h</t>
+          <t>https://www.aiscore.com/match-st-louis-city-sc-portland-timbers/j374oioxm5zhgqo/h2h</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -49718,17 +49730,17 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Atlanta United</t>
+          <t>St. Louis City SC</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/13/2025</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -49744,28 +49756,28 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L640" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
       <c r="N640" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O640" t="inlineStr"/>
       <c r="P640" t="n">
         <v>7</v>
       </c>
       <c r="Q640" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -49773,22 +49785,22 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T640" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U640" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V640" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-philadelphia-union-montreal-impact/8lk2dixml8esz73/h2h</t>
+          <t>https://www.aiscore.com/match-new-york-red-bulls-new-england-revolution/l6kegiwd5v1hv75/h2h</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -49798,12 +49810,12 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -49811,25 +49823,21 @@
           <t>07/16/2025</t>
         </is>
       </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L641" t="n">
         <v>9.5</v>
@@ -49838,14 +49846,14 @@
         <v>2</v>
       </c>
       <c r="N641" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O641" t="inlineStr"/>
       <c r="P641" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q641" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -49853,22 +49861,22 @@
         </is>
       </c>
       <c r="S641" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T641" t="n">
         <v>1.82</v>
       </c>
-      <c r="T641" t="n">
-        <v>1.97</v>
-      </c>
       <c r="U641" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V641" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-fc-cincinnati-inter-miami-cf/o17pjijgde4fy7j/h2h</t>
+          <t>https://www.aiscore.com/match-atlanta-united-chicago-fire/wv78xi89rw9aokr/h2h</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -49878,12 +49886,12 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Atlanta United</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -49909,23 +49917,23 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L642" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
       <c r="N642" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O642" t="inlineStr"/>
       <c r="P642" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q642" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -49933,22 +49941,22 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T642" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U642" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="V642" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-charlotte-fc-dc-united/zrkn6iv6w25twql/h2h</t>
+          <t>https://www.aiscore.com/match-philadelphia-union-montreal-impact/8lk2dixml8esz73/h2h</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -49958,12 +49966,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
@@ -49984,7 +49992,7 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J643" t="inlineStr"/>
@@ -49992,10 +50000,10 @@
         <v>3</v>
       </c>
       <c r="L643" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M643" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N643" t="n">
         <v>3</v>
@@ -50005,7 +50013,7 @@
         <v>13</v>
       </c>
       <c r="Q643" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -50013,10 +50021,10 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T643" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U643" t="n">
         <v>1.8</v>
@@ -50028,7 +50036,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-orlando-city-new-york-city-fc/ndqmli26vjgcrkv/h2h</t>
+          <t>https://www.aiscore.com/match-fc-cincinnati-inter-miami-cf/o17pjijgde4fy7j/h2h</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -50038,12 +50046,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>New York City FC</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -50069,10 +50077,10 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L644" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M644" t="n">
         <v>1</v>
@@ -50082,10 +50090,10 @@
       </c>
       <c r="O644" t="inlineStr"/>
       <c r="P644" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q644" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
@@ -50093,22 +50101,22 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T644" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U644" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="V644" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-houston-dynamo-vancouver-whitecaps/xvkjoi0jplvf879/h2h</t>
+          <t>https://www.aiscore.com/match-charlotte-fc-dc-united/zrkn6iv6w25twql/h2h</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -50118,12 +50126,12 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -50138,34 +50146,34 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L645" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N645" t="n">
         <v>3</v>
       </c>
       <c r="O645" t="inlineStr"/>
       <c r="P645" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q645" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -50173,22 +50181,22 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T645" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U645" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V645" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-minnesota-united-fc-los-angeles-fc/527r3in2zpzt47e/h2h</t>
+          <t>https://www.aiscore.com/match-orlando-city-new-york-city-fc/ndqmli26vjgcrkv/h2h</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -50198,12 +50206,12 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Minnesota United FC</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -50224,7 +50232,7 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J646" t="inlineStr"/>
@@ -50238,14 +50246,14 @@
         <v>1</v>
       </c>
       <c r="N646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O646" t="inlineStr"/>
       <c r="P646" t="n">
         <v>13</v>
       </c>
       <c r="Q646" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R646" t="inlineStr">
         <is>
@@ -50253,22 +50261,22 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="T646" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="U646" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V646" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-nashville-columbus-crew/9gklzi42dm8tm7x/h2h</t>
+          <t>https://www.aiscore.com/match-houston-dynamo-vancouver-whitecaps/xvkjoi0jplvf879/h2h</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -50278,12 +50286,12 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -50309,10 +50317,10 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L647" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M647" t="n">
         <v>2</v>
@@ -50322,10 +50330,10 @@
       </c>
       <c r="O647" t="inlineStr"/>
       <c r="P647" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q647" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -50333,22 +50341,22 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T647" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U647" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V647" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-seattle-sounders-colorado-rapids/527r3in2z18h47e/h2h</t>
+          <t>https://www.aiscore.com/match-minnesota-united-fc-los-angeles-fc/527r3in2zpzt47e/h2h</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -50358,12 +50366,12 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Minnesota United FC</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -50389,23 +50397,23 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L648" t="n">
         <v>9.5</v>
       </c>
       <c r="M648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N648" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O648" t="inlineStr"/>
       <c r="P648" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q648" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -50413,22 +50421,22 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T648" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U648" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V648" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-los-angeles-galaxy-austin-fc/edq09i4jzymaeqx/h2h</t>
+          <t>https://www.aiscore.com/match-nashville-columbus-crew/9gklzi42dm8tm7x/h2h</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -50438,12 +50446,12 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -50451,10 +50459,14 @@
           <t>07/16/2025</t>
         </is>
       </c>
-      <c r="F649" t="inlineStr"/>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H649" t="inlineStr"/>
@@ -50468,17 +50480,17 @@
         <v>2.75</v>
       </c>
       <c r="L649" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M649" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N649" t="n">
         <v>3</v>
       </c>
       <c r="O649" t="inlineStr"/>
       <c r="P649" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q649" t="n">
         <v>8</v>
@@ -50495,16 +50507,16 @@
         <v>1.9</v>
       </c>
       <c r="U649" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V649" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-san-jose-earthquakes-fc-dallas/m2q15ipl316ue76/h2h</t>
+          <t>https://www.aiscore.com/match-seattle-sounders-colorado-rapids/527r3in2z18h47e/h2h</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -50514,12 +50526,12 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -50540,7 +50552,7 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J650" t="inlineStr"/>
@@ -50548,20 +50560,20 @@
         <v>3.25</v>
       </c>
       <c r="L650" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M650" t="n">
         <v>2</v>
       </c>
       <c r="N650" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O650" t="inlineStr"/>
       <c r="P650" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q650" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -50569,22 +50581,22 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T650" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="U650" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V650" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-san-diego-fc-toronto-fc/ndqmli26v0pfrkv/h2h</t>
+          <t>https://www.aiscore.com/match-los-angeles-galaxy-austin-fc/edq09i4jzymaeqx/h2h</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -50594,12 +50606,12 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -50607,25 +50619,21 @@
           <t>07/16/2025</t>
         </is>
       </c>
-      <c r="F651" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+      <c r="F651" t="inlineStr"/>
       <c r="G651" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L651" t="n">
         <v>9.5</v>
@@ -50634,14 +50642,14 @@
         <v>1</v>
       </c>
       <c r="N651" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O651" t="inlineStr"/>
       <c r="P651" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q651" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -50649,22 +50657,22 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="T651" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U651" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V651" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-portland-timbers-real-salt-lake/j374oioxmzzsgqo/h2h</t>
+          <t>https://www.aiscore.com/match-san-jose-earthquakes-fc-dallas/m2q15ipl316ue76/h2h</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -50674,12 +50682,12 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -50694,7 +50702,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H652" t="inlineStr"/>
@@ -50708,20 +50716,20 @@
         <v>3.25</v>
       </c>
       <c r="L652" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N652" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O652" t="inlineStr"/>
       <c r="P652" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q652" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -50729,22 +50737,22 @@
         </is>
       </c>
       <c r="S652" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T652" t="n">
         <v>1.97</v>
       </c>
-      <c r="T652" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U652" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V652" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-new-england-revolution-orlando-city/edq09i4jzgraeqx/h2h</t>
+          <t>https://www.aiscore.com/match-san-diego-fc-toronto-fc/ndqmli26v0pfrkv/h2h</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -50754,17 +50762,17 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>07/19/2025</t>
+          <t>07/16/2025</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -50794,14 +50802,14 @@
         <v>1</v>
       </c>
       <c r="N653" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O653" t="inlineStr"/>
       <c r="P653" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q653" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -50809,22 +50817,22 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T653" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U653" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V653" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-montreal-impact-chicago-fire/vmqy9il35rvhgk9/h2h</t>
+          <t>https://www.aiscore.com/match-portland-timbers-real-salt-lake/j374oioxmzzsgqo/h2h</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -50834,17 +50842,17 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>07/19/2025</t>
+          <t>07/16/2025</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -50854,7 +50862,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H654" t="inlineStr"/>
@@ -50865,23 +50873,23 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L654" t="n">
         <v>9.5</v>
       </c>
       <c r="M654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N654" t="n">
         <v>1</v>
-      </c>
-      <c r="N654" t="n">
-        <v>2</v>
       </c>
       <c r="O654" t="inlineStr"/>
       <c r="P654" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q654" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
@@ -50889,22 +50897,22 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="T654" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="U654" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="V654" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-columbus-crew-dc-united/xvkjoi0jpgvu879/h2h</t>
+          <t>https://www.aiscore.com/match-new-england-revolution-orlando-city/edq09i4jzgraeqx/h2h</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -50914,12 +50922,12 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -50934,7 +50942,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H655" t="inlineStr"/>
@@ -50958,10 +50966,10 @@
       </c>
       <c r="O655" t="inlineStr"/>
       <c r="P655" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q655" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -50969,22 +50977,22 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T655" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U655" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V655" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-atlanta-united-charlotte-fc/m2q15ipl3mwie76/h2h</t>
+          <t>https://www.aiscore.com/match-montreal-impact-chicago-fire/vmqy9il35rvhgk9/h2h</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -50994,12 +51002,12 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Atlanta United</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -51020,7 +51028,7 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J656" t="inlineStr"/>
@@ -51034,14 +51042,14 @@
         <v>1</v>
       </c>
       <c r="N656" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O656" t="inlineStr"/>
       <c r="P656" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q656" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
@@ -51049,22 +51057,22 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T656" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U656" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V656" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-new-york-red-bulls-inter-miami-cf/vmqy9il35dvsgk9/h2h</t>
+          <t>https://www.aiscore.com/match-columbus-crew-dc-united/xvkjoi0jpgvu879/h2h</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -51074,12 +51082,12 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -51094,57 +51102,57 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L657" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M657" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N657" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O657" t="inlineStr"/>
       <c r="P657" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q657" t="n">
         <v>6</v>
       </c>
-      <c r="Q657" t="n">
-        <v>10</v>
-      </c>
       <c r="R657" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="T657" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="U657" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="V657" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-nashville-toronto-fc/vmqy9il356vtgk9/h2h</t>
+          <t>https://www.aiscore.com/match-atlanta-united-charlotte-fc/m2q15ipl3mwie76/h2h</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -51154,12 +51162,12 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Atlanta United</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -51180,12 +51188,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L658" t="n">
         <v>9.5</v>
@@ -51194,14 +51202,14 @@
         <v>1</v>
       </c>
       <c r="N658" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O658" t="inlineStr"/>
       <c r="P658" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q658" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
@@ -51209,22 +51217,22 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="T658" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U658" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V658" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-seattle-sounders-san-jose-earthquakes/63kv9ixnl0zux7e/h2h</t>
+          <t>https://www.aiscore.com/match-new-york-red-bulls-inter-miami-cf/vmqy9il35dvsgk9/h2h</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -51234,12 +51242,12 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
@@ -51260,28 +51268,28 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L659" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="M659" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N659" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O659" t="inlineStr"/>
       <c r="P659" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q659" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -51289,22 +51297,22 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T659" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U659" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="V659" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-sporting-kansas-city-new-york-city-fc/vrqwnigpj6nc4qn/h2h</t>
+          <t>https://www.aiscore.com/match-nashville-toronto-fc/vmqy9il356vtgk9/h2h</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -51314,12 +51322,12 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>New York City FC</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
@@ -51345,7 +51353,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L660" t="n">
         <v>9.5</v>
@@ -51354,14 +51362,14 @@
         <v>1</v>
       </c>
       <c r="N660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O660" t="inlineStr"/>
       <c r="P660" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q660" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -51369,22 +51377,22 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="T660" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="U660" t="n">
+        <v>2</v>
+      </c>
+      <c r="V660" t="n">
         <v>1.72</v>
-      </c>
-      <c r="V660" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-fc-dallas-st-louis-city-sc/oj7x9inplynu47g/h2h</t>
+          <t>https://www.aiscore.com/match-seattle-sounders-san-jose-earthquakes/63kv9ixnl0zux7e/h2h</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -51394,12 +51402,12 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>St. Louis City SC</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -51425,23 +51433,23 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L661" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N661" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O661" t="inlineStr"/>
       <c r="P661" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q661" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -51449,22 +51457,22 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T661" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U661" t="n">
+        <v>2</v>
+      </c>
+      <c r="V661" t="n">
         <v>1.72</v>
-      </c>
-      <c r="V661" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-houston-dynamo-philadelphia-union/oj7x9inpl8nt47g/h2h</t>
+          <t>https://www.aiscore.com/match-sporting-kansas-city-new-york-city-fc/vrqwnigpj6nc4qn/h2h</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -51474,12 +51482,12 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -51500,28 +51508,28 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L662" t="n">
         <v>9.5</v>
       </c>
       <c r="M662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N662" t="n">
         <v>2</v>
       </c>
       <c r="O662" t="inlineStr"/>
       <c r="P662" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q662" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
@@ -51529,22 +51537,22 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T662" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U662" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V662" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-real-salt-lake-fc-cincinnati/edq09i4jznmfeqx/h2h</t>
+          <t>https://www.aiscore.com/match-fc-dallas-st-louis-city-sc/oj7x9inplynu47g/h2h</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -51554,12 +51562,12 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>St. Louis City SC</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -51585,42 +51593,46 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L663" t="n">
         <v>9.5</v>
       </c>
       <c r="M663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N663" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O663" t="inlineStr"/>
       <c r="P663" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q663" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S663" t="inlineStr"/>
-      <c r="T663" t="inlineStr"/>
+      <c r="S663" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T663" t="n">
+        <v>2</v>
+      </c>
       <c r="U663" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V663" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-san-diego-fc-vancouver-whitecaps/9gklzi42d9wcm7x/h2h</t>
+          <t>https://www.aiscore.com/match-houston-dynamo-philadelphia-union/oj7x9inpl8nt47g/h2h</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -51630,12 +51642,12 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -51656,28 +51668,28 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L664" t="n">
         <v>9.5</v>
       </c>
       <c r="M664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N664" t="n">
         <v>2</v>
       </c>
       <c r="O664" t="inlineStr"/>
       <c r="P664" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q664" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
@@ -51685,22 +51697,22 @@
         </is>
       </c>
       <c r="S664" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T664" t="n">
         <v>1.95</v>
       </c>
-      <c r="T664" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U664" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V664" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-portland-timbers-minnesota-united-fc/69759il946vagk2/h2h</t>
+          <t>https://www.aiscore.com/match-real-salt-lake-fc-cincinnati/edq09i4jznmfeqx/h2h</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -51710,12 +51722,12 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Minnesota United FC</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
@@ -51744,43 +51756,39 @@
         <v>2.75</v>
       </c>
       <c r="L665" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M665" t="n">
         <v>0</v>
       </c>
       <c r="N665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O665" t="inlineStr"/>
       <c r="P665" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q665" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S665" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T665" t="n">
-        <v>2</v>
-      </c>
+      <c r="S665" t="inlineStr"/>
+      <c r="T665" t="inlineStr"/>
       <c r="U665" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V665" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-los-angeles-fc-los-angeles-galaxy/g6763i6j8e4so7r/h2h</t>
+          <t>https://www.aiscore.com/match-san-diego-fc-vancouver-whitecaps/9gklzi42d9wcm7x/h2h</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -51790,12 +51798,12 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -51816,7 +51824,7 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J666" t="inlineStr"/>
@@ -51827,17 +51835,17 @@
         <v>9.5</v>
       </c>
       <c r="M666" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N666" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O666" t="inlineStr"/>
       <c r="P666" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q666" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -51845,22 +51853,22 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T666" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U666" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V666" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-new-england-revolution-montreal-impact/527r3in2zmzu47e/h2h</t>
+          <t>https://www.aiscore.com/match-portland-timbers-minnesota-united-fc/69759il946vagk2/h2h</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -51870,17 +51878,17 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Montreal Impact</t>
+          <t>Minnesota United FC</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>07/25/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -51901,20 +51909,20 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L667" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N667" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O667" t="inlineStr"/>
       <c r="P667" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q667" t="n">
         <v>8</v>
@@ -51925,22 +51933,22 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="T667" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="U667" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="V667" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-columbus-crew-orlando-city/oj7x9inplejb47g/h2h</t>
+          <t>https://www.aiscore.com/match-los-angeles-fc-los-angeles-galaxy/g6763i6j8e4so7r/h2h</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -51950,23 +51958,27 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>07/25/2025</t>
-        </is>
-      </c>
-      <c r="F668" t="inlineStr"/>
+          <t>07/19/2025</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H668" t="inlineStr"/>
@@ -51980,43 +51992,43 @@
         <v>3</v>
       </c>
       <c r="L668" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M668" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N668" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O668" t="inlineStr"/>
       <c r="P668" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q668" t="n">
         <v>10</v>
       </c>
-      <c r="Q668" t="n">
-        <v>13</v>
-      </c>
       <c r="R668" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="T668" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U668" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V668" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-fc-dallas-new-york-city-fc/wv78xi89r39aokr/h2h</t>
+          <t>https://www.aiscore.com/match-new-england-revolution-montreal-impact/527r3in2zmzu47e/h2h</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -52026,12 +52038,12 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>New York City FC</t>
+          <t>Montreal Impact</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -52052,28 +52064,28 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L669" t="n">
         <v>9.5</v>
       </c>
       <c r="M669" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N669" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O669" t="inlineStr"/>
       <c r="P669" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q669" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -52081,22 +52093,22 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="T669" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="U669" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V669" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-los-angeles-fc-portland-timbers/g6763i6j8ylho7r/h2h</t>
+          <t>https://www.aiscore.com/match-columbus-crew-orlando-city/oj7x9inplejb47g/h2h</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -52106,12 +52118,12 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -52119,14 +52131,10 @@
           <t>07/25/2025</t>
         </is>
       </c>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H670" t="inlineStr"/>
@@ -52140,20 +52148,20 @@
         <v>3</v>
       </c>
       <c r="L670" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N670" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O670" t="inlineStr"/>
       <c r="P670" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q670" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -52161,22 +52169,22 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T670" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U670" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V670" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-san-diego-fc-nashville/69759il940vfgk2/h2h</t>
+          <t>https://www.aiscore.com/match-fc-dallas-new-york-city-fc/wv78xi89r39aokr/h2h</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -52186,12 +52194,12 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -52199,7 +52207,11 @@
           <t>07/25/2025</t>
         </is>
       </c>
-      <c r="F671" t="inlineStr"/>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G671" t="inlineStr">
         <is>
           <t>Under</t>
@@ -52208,28 +52220,28 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L671" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M671" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N671" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O671" t="inlineStr"/>
       <c r="P671" t="n">
         <v>4</v>
       </c>
       <c r="Q671" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -52237,22 +52249,22 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T671" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U671" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V671" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-inter-miami-cf-fc-cincinnati/o07dniw9zo6bmkn/h2h</t>
+          <t>https://www.aiscore.com/match-los-angeles-fc-portland-timbers/g6763i6j8ylho7r/h2h</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -52262,17 +52274,17 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>07/26/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -52282,7 +52294,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H672" t="inlineStr"/>
@@ -52293,20 +52305,20 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L672" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O672" t="inlineStr"/>
       <c r="P672" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q672" t="n">
         <v>7</v>
@@ -52323,16 +52335,16 @@
         <v>1.8</v>
       </c>
       <c r="U672" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V672" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-atlanta-united-seattle-sounders/34kgmiz86xjueko/h2h</t>
+          <t>https://www.aiscore.com/match-san-diego-fc-nashville/69759il940vfgk2/h2h</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -52342,24 +52354,20 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Atlanta United</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>07/26/2025</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+          <t>07/25/2025</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr">
         <is>
           <t>Under</t>
@@ -52368,51 +52376,51 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L673" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N673" t="n">
         <v>1</v>
-      </c>
-      <c r="N673" t="n">
-        <v>4</v>
       </c>
       <c r="O673" t="inlineStr"/>
       <c r="P673" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q673" t="n">
         <v>7</v>
       </c>
-      <c r="Q673" t="n">
-        <v>4</v>
-      </c>
       <c r="R673" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="S673" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T673" t="n">
         <v>1.95</v>
       </c>
-      <c r="T673" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U673" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V673" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-philadelphia-union-colorado-rapids/8lk2dixml9efz73/h2h</t>
+          <t>https://www.aiscore.com/match-inter-miami-cf-fc-cincinnati/o07dniw9zo6bmkn/h2h</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -52422,12 +52430,12 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -52448,7 +52456,7 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J674" t="inlineStr"/>
@@ -52456,20 +52464,20 @@
         <v>3.25</v>
       </c>
       <c r="L674" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="M674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N674" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O674" t="inlineStr"/>
       <c r="P674" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q674" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -52477,22 +52485,22 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T674" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U674" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V674" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-charlotte-fc-toronto-fc/wv78xi89re2cokr/h2h</t>
+          <t>https://www.aiscore.com/match-atlanta-united-seattle-sounders/34kgmiz86xjueko/h2h</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -52502,12 +52510,12 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Atlanta United</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -52528,47 +52536,51 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L675" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N675" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O675" t="inlineStr"/>
       <c r="P675" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q675" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S675" t="inlineStr"/>
-      <c r="T675" t="inlineStr"/>
+      <c r="S675" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T675" t="n">
+        <v>1.85</v>
+      </c>
       <c r="U675" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V675" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-dc-united-austin-fc/o07dniw9z16bmkn/h2h</t>
+          <t>https://www.aiscore.com/match-philadelphia-union-colorado-rapids/8lk2dixml9efz73/h2h</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -52578,12 +52590,12 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -52604,25 +52616,25 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L676" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N676" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O676" t="inlineStr"/>
       <c r="P676" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q676" t="n">
         <v>12</v>
@@ -52633,22 +52645,22 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T676" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U676" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V676" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-chicago-fire-new-york-red-bulls/jr7owir94zoigq0/h2h</t>
+          <t>https://www.aiscore.com/match-charlotte-fc-toronto-fc/wv78xi89re2cokr/h2h</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -52658,12 +52670,12 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -52678,57 +52690,53 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L677" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N677" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O677" t="inlineStr"/>
       <c r="P677" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q677" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S677" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T677" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="S677" t="inlineStr"/>
+      <c r="T677" t="inlineStr"/>
       <c r="U677" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V677" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-st-louis-city-sc-minnesota-united-fc/o17pjijgd34iy7j/h2h</t>
+          <t>https://www.aiscore.com/match-dc-united-austin-fc/o07dniw9z16bmkn/h2h</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -52738,12 +52746,12 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>St. Louis City SC</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>Minnesota United FC</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -52758,34 +52766,34 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L678" t="n">
         <v>9.5</v>
       </c>
       <c r="M678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N678" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O678" t="inlineStr"/>
       <c r="P678" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q678" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -52793,22 +52801,22 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T678" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="U678" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V678" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V678" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-real-salt-lake-san-jose-earthquakes/9gklzi42dnwum7x/h2h</t>
+          <t>https://www.aiscore.com/match-chicago-fire-new-york-red-bulls/jr7owir94zoigq0/h2h</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -52818,12 +52826,12 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -52844,28 +52852,28 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L679" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="M679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N679" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O679" t="inlineStr"/>
       <c r="P679" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q679" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -52873,22 +52881,22 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T679" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="U679" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V679" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-vancouver-whitecaps-sporting-kansas-city/63kv9ixnlv8ax7e/h2h</t>
+          <t>https://www.aiscore.com/match-st-louis-city-sc-minnesota-united-fc/o17pjijgd34iy7j/h2h</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -52898,12 +52906,12 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>St. Louis City SC</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Minnesota United FC</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -52929,23 +52937,23 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L680" t="n">
         <v>9.5</v>
       </c>
       <c r="M680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N680" t="n">
         <v>3</v>
       </c>
       <c r="O680" t="inlineStr"/>
       <c r="P680" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q680" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
@@ -52953,45 +52961,49 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T680" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U680" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V680" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-academia-puerto-cabello-metropolitanos-fc/ndkz6i3821yhxq3/h2h</t>
+          <t>https://www.aiscore.com/match-real-salt-lake-san-jose-earthquakes/9gklzi42dnwum7x/h2h</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Venezuela Primera Division</t>
+          <t>United States Major League Soccer</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Metropolitanos FC</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>07/04/2025</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr"/>
+          <t>07/26/2025</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G681" t="inlineStr">
         <is>
           <t>Over</t>
@@ -53005,23 +53017,23 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L681" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="M681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N681" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O681" t="inlineStr"/>
       <c r="P681" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q681" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -53029,42 +53041,42 @@
         </is>
       </c>
       <c r="S681" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T681" t="n">
         <v>1.85</v>
       </c>
-      <c r="T681" t="n">
-        <v>1.95</v>
-      </c>
       <c r="U681" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V681" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-yaracuyanos-portuguesa-fc/69759igyr6oigk2/h2h</t>
+          <t>https://www.aiscore.com/match-vancouver-whitecaps-sporting-kansas-city/63kv9ixnlv8ax7e/h2h</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Venezuela Primera Division</t>
+          <t>United States Major League Soccer</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Yaracuyanos</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Portuguesa FC</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>07/05/2025</t>
+          <t>07/26/2025</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -53074,21 +53086,21 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L682" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M682" t="n">
         <v>2</v>
@@ -53098,10 +53110,10 @@
       </c>
       <c r="O682" t="inlineStr"/>
       <c r="P682" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q682" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
@@ -53109,22 +53121,22 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T682" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U682" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="V682" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-carabobo-estudiantes-merida-fc/8lk2diro3necz73/h2h</t>
+          <t>https://www.aiscore.com/match-academia-puerto-cabello-metropolitanos-fc/ndkz6i3821yhxq3/h2h</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -53134,24 +53146,20 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Estudiantes Merida FC</t>
+          <t>Metropolitanos FC</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>07/05/2025</t>
-        </is>
-      </c>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+          <t>07/04/2025</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
           <t>Over</t>
@@ -53168,17 +53176,17 @@
         <v>2.25</v>
       </c>
       <c r="L683" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N683" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O683" t="inlineStr"/>
       <c r="P683" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q683" t="n">
         <v>7</v>
@@ -53189,22 +53197,22 @@
         </is>
       </c>
       <c r="S683" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T683" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U683" t="n">
         <v>1.9</v>
       </c>
-      <c r="T683" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U683" t="n">
+      <c r="V683" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V683" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-caracas-fc-rayo-zuliano/63kv9igj62zux7e/h2h</t>
+          <t>https://www.aiscore.com/match-yaracuyanos-portuguesa-fc/69759igyr6oigk2/h2h</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -53214,17 +53222,17 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Caracas FC</t>
+          <t>Yaracuyanos</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Portuguesa FC</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>07/06/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -53245,7 +53253,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L684" t="n">
         <v>8.5</v>
@@ -53258,10 +53266,10 @@
       </c>
       <c r="O684" t="inlineStr"/>
       <c r="P684" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q684" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -53269,22 +53277,22 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="T684" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="U684" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V684" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-academia-anzoategui-universidad-central-de-venezuela/jek33i8jm16f9ko/h2h</t>
+          <t>https://www.aiscore.com/match-carabobo-estudiantes-merida-fc/8lk2diro3necz73/h2h</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -53294,17 +53302,17 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Academia Anzoategui</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Universidad Central de Venezuela</t>
+          <t>Estudiantes Merida FC</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>07/06/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
@@ -53314,7 +53322,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H685" t="inlineStr"/>
@@ -53325,7 +53333,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L685" t="n">
         <v>8.5</v>
@@ -53334,14 +53342,14 @@
         <v>0</v>
       </c>
       <c r="N685" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O685" t="inlineStr"/>
       <c r="P685" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q685" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -53349,22 +53357,22 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="T685" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U685" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V685" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-zamora-barinas-deportivo-tachira/o07dni56ng6smkn/h2h</t>
+          <t>https://www.aiscore.com/match-caracas-fc-rayo-zuliano/63kv9igj62zux7e/h2h</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -53374,12 +53382,12 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Zamora Barinas</t>
+          <t>Caracas FC</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -53411,17 +53419,17 @@
         <v>8.5</v>
       </c>
       <c r="M686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N686" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O686" t="inlineStr"/>
       <c r="P686" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q686" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -53429,22 +53437,22 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="T686" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U686" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V686" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-deportivo-la-guaira-monagas-sc/527r3i4931zc47e/h2h</t>
+          <t>https://www.aiscore.com/match-academia-anzoategui-universidad-central-de-venezuela/jek33i8jm16f9ko/h2h</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -53454,20 +53462,24 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Academia Anzoategui</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Monagas SC</t>
+          <t>Universidad Central de Venezuela</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr"/>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G687" t="inlineStr">
         <is>
           <t>Under</t>
@@ -53481,23 +53493,23 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L687" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N687" t="n">
         <v>2</v>
       </c>
       <c r="O687" t="inlineStr"/>
       <c r="P687" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q687" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -53505,22 +53517,22 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="T687" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U687" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V687" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-universidad-central-de-venezuela-deportivo-la-guaira/9gklzi1onozhm7x/h2h</t>
+          <t>https://www.aiscore.com/match-zamora-barinas-deportivo-tachira/o07dni56ng6smkn/h2h</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -53530,17 +53542,17 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Universidad Central de Venezuela</t>
+          <t>Zamora Barinas</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/06/2025</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -53570,14 +53582,14 @@
         <v>1</v>
       </c>
       <c r="N688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O688" t="inlineStr"/>
       <c r="P688" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q688" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -53591,16 +53603,16 @@
         <v>1.82</v>
       </c>
       <c r="U688" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V688" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-portuguesa-fc-carabobo/527r3i4yjj0h47e/h2h</t>
+          <t>https://www.aiscore.com/match-deportivo-la-guaira-monagas-sc/527r3i4931zc47e/h2h</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -53610,27 +53622,23 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Portuguesa FC</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Monagas SC</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr"/>
       <c r="G689" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H689" t="inlineStr"/>
@@ -53641,23 +53649,23 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L689" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="M689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O689" t="inlineStr"/>
       <c r="P689" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q689" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -53665,22 +53673,22 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T689" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U689" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="V689" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-rayo-zuliano-academia-anzoategui/34kgmiopxxnteko/h2h</t>
+          <t>https://www.aiscore.com/match-universidad-central-de-venezuela-deportivo-la-guaira/9gklzi1onozhm7x/h2h</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -53690,17 +53698,17 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Universidad Central de Venezuela</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Academia Anzoategui</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -53710,7 +53718,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H690" t="inlineStr"/>
@@ -53724,20 +53732,20 @@
         <v>2.25</v>
       </c>
       <c r="L690" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
       <c r="N690" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O690" t="inlineStr"/>
       <c r="P690" t="n">
         <v>12</v>
       </c>
       <c r="Q690" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -53745,22 +53753,22 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T690" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U690" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="V690" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-estudiantes-merida-fc-zamora-barinas/69759ig5jj5cgk2/h2h</t>
+          <t>https://www.aiscore.com/match-portuguesa-fc-carabobo/527r3i4yjj0h47e/h2h</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -53770,17 +53778,17 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Estudiantes Merida FC</t>
+          <t>Portuguesa FC</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Zamora Barinas</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
@@ -53804,20 +53812,20 @@
         <v>2.25</v>
       </c>
       <c r="L691" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O691" t="inlineStr"/>
       <c r="P691" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q691" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -53825,22 +53833,22 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="T691" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="U691" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="V691" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-academia-puerto-cabello-yaracuyanos/8lk2dir1888tz73/h2h</t>
+          <t>https://www.aiscore.com/match-rayo-zuliano-academia-anzoategui/34kgmiopxxnteko/h2h</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -53850,12 +53858,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Yaracuyanos</t>
+          <t>Academia Anzoategui</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -53870,7 +53878,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H692" t="inlineStr"/>
@@ -53881,46 +53889,46 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L692" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
       <c r="N692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O692" t="inlineStr"/>
       <c r="P692" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q692" t="n">
         <v>9</v>
       </c>
-      <c r="Q692" t="n">
-        <v>5</v>
-      </c>
       <c r="R692" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T692" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U692" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="V692" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-metropolitanos-fc-caracas-fc/63kv9ig9880bx7e/h2h</t>
+          <t>https://www.aiscore.com/match-estudiantes-merida-fc-zamora-barinas/69759ig5jj5cgk2/h2h</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -53930,17 +53938,17 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Metropolitanos FC</t>
+          <t>Estudiantes Merida FC</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Caracas FC</t>
+          <t>Zamora Barinas</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>07/13/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -53964,17 +53972,17 @@
         <v>2.25</v>
       </c>
       <c r="L693" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M693" t="n">
+        <v>1</v>
+      </c>
+      <c r="N693" t="n">
         <v>3</v>
-      </c>
-      <c r="N693" t="n">
-        <v>5</v>
       </c>
       <c r="O693" t="inlineStr"/>
       <c r="P693" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q693" t="n">
         <v>8</v>
@@ -53985,22 +53993,22 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="T693" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="U693" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V693" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-deportivo-tachira-monagas-sc/jek33i8oee3f9ko/h2h</t>
+          <t>https://www.aiscore.com/match-academia-puerto-cabello-yaracuyanos/8lk2dir1888tz73/h2h</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -54010,17 +54018,17 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Monagas SC</t>
+          <t>Yaracuyanos</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>07/13/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -54047,17 +54055,17 @@
         <v>8.5</v>
       </c>
       <c r="M694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N694" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O694" t="inlineStr"/>
       <c r="P694" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q694" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -54065,22 +54073,22 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T694" t="n">
+        <v>2</v>
+      </c>
+      <c r="U694" t="n">
         <v>1.8</v>
       </c>
-      <c r="U694" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V694" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-deportivo-la-guaira-rayo-zuliano/ndkz6i3op0gixq3/h2h</t>
+          <t>https://www.aiscore.com/match-metropolitanos-fc-caracas-fc/63kv9ig9880bx7e/h2h</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -54090,17 +54098,17 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Metropolitanos FC</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Rayo Zuliano</t>
+          <t>Caracas FC</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>07/13/2025</t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
@@ -54124,17 +54132,17 @@
         <v>2.25</v>
       </c>
       <c r="L695" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M695" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N695" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O695" t="inlineStr"/>
       <c r="P695" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q695" t="n">
         <v>8</v>
@@ -54145,22 +54153,22 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T695" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U695" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V695" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-academia-anzoategui-caracas-fc/527r3i4ydz1t47e/h2h</t>
+          <t>https://www.aiscore.com/match-deportivo-tachira-monagas-sc/jek33i8oee3f9ko/h2h</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -54170,20 +54178,24 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Academia Anzoategui</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>Caracas FC</t>
+          <t>Monagas SC</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr"/>
+          <t>07/13/2025</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G696" t="inlineStr">
         <is>
           <t>Over</t>
@@ -54197,23 +54209,23 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L696" t="n">
         <v>8.5</v>
       </c>
       <c r="M696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N696" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O696" t="inlineStr"/>
       <c r="P696" t="n">
         <v>11</v>
       </c>
       <c r="Q696" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -54221,10 +54233,10 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T696" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U696" t="n">
         <v>1.83</v>
@@ -54236,7 +54248,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-universidad-central-de-venezuela-deportivo-tachira/wv78xiv64resokr/h2h</t>
+          <t>https://www.aiscore.com/match-deportivo-la-guaira-rayo-zuliano/ndkz6i3op0gixq3/h2h</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -54246,17 +54258,17 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Universidad Central de Venezuela</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Rayo Zuliano</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>07/19/2025</t>
+          <t>07/18/2025</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -54280,20 +54292,20 @@
         <v>2.25</v>
       </c>
       <c r="L697" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N697" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O697" t="inlineStr"/>
       <c r="P697" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q697" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -54301,22 +54313,22 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T697" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U697" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V697" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-carabobo-academia-puerto-cabello/edq09il0rzoteqx/h2h</t>
+          <t>https://www.aiscore.com/match-academia-anzoategui-caracas-fc/527r3i4ydz1t47e/h2h</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -54326,24 +54338,20 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Academia Anzoategui</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Caracas FC</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>07/19/2025</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+          <t>07/18/2025</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
         <is>
           <t>Over</t>
@@ -54357,23 +54365,23 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L698" t="n">
         <v>8.5</v>
       </c>
       <c r="M698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O698" t="inlineStr"/>
       <c r="P698" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q698" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -54381,22 +54389,22 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="T698" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="U698" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V698" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-monagas-sc-estudiantes-merida-fc/34kgmiopl61teko/h2h</t>
+          <t>https://www.aiscore.com/match-universidad-central-de-venezuela-deportivo-tachira/wv78xiv64resokr/h2h</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -54406,12 +54414,12 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Monagas SC</t>
+          <t>Universidad Central de Venezuela</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Estudiantes Merida FC</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -54426,7 +54434,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H699" t="inlineStr"/>
@@ -54437,23 +54445,23 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L699" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N699" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O699" t="inlineStr"/>
       <c r="P699" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q699" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -54461,22 +54469,22 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T699" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U699" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V699" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-metropolitanos-fc-yaracuyanos/69759ig5p4lfgk2/h2h</t>
+          <t>https://www.aiscore.com/match-carabobo-academia-puerto-cabello/edq09il0rzoteqx/h2h</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -54486,23 +54494,27 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Metropolitanos FC</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Yaracuyanos</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>07/20/2025</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr"/>
+          <t>07/19/2025</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="H700" t="inlineStr"/>
@@ -54513,20 +54525,20 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L700" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O700" t="inlineStr"/>
       <c r="P700" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q700" t="n">
         <v>7</v>
@@ -54537,22 +54549,22 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T700" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U700" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V700" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-zamora-barinas-portuguesa-fc/8lk2dir1zlrcz73/h2h</t>
+          <t>https://www.aiscore.com/match-monagas-sc-estudiantes-merida-fc/34kgmiopl61teko/h2h</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -54562,17 +54574,17 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Zamora Barinas</t>
+          <t>Monagas SC</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Portuguesa FC</t>
+          <t>Estudiantes Merida FC</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>07/20/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -54582,7 +54594,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H701" t="inlineStr"/>
@@ -54593,10 +54605,10 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L701" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M701" t="n">
         <v>0</v>
@@ -54606,7 +54618,7 @@
       </c>
       <c r="O701" t="inlineStr"/>
       <c r="P701" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q701" t="n">
         <v>7</v>
@@ -54617,22 +54629,22 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T701" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U701" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V701" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-yaracuyanos-carabobo/oj7x9ix3gpwh47g/h2h</t>
+          <t>https://www.aiscore.com/match-metropolitanos-fc-yaracuyanos/69759ig5p4lfgk2/h2h</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -54642,24 +54654,20 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
+          <t>Metropolitanos FC</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
           <t>Yaracuyanos</t>
         </is>
       </c>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>07/24/2025</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
+          <t>07/20/2025</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr"/>
       <c r="G702" t="inlineStr">
         <is>
           <t>Under</t>
@@ -54673,7 +54681,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L702" t="n">
         <v>9.5</v>
@@ -54686,10 +54694,10 @@
       </c>
       <c r="O702" t="inlineStr"/>
       <c r="P702" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q702" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -54697,22 +54705,22 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T702" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U702" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V702" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-metropolitanos-fc-academia-anzoategui/xvkjoi8xwp6h879/h2h</t>
+          <t>https://www.aiscore.com/match-zamora-barinas-portuguesa-fc/8lk2dir1zlrcz73/h2h</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -54722,17 +54730,17 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Metropolitanos FC</t>
+          <t>Zamora Barinas</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Academia Anzoategui</t>
+          <t>Portuguesa FC</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>07/24/2025</t>
+          <t>07/20/2025</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -54753,23 +54761,23 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L703" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N703" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O703" t="inlineStr"/>
       <c r="P703" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q703" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -54777,22 +54785,22 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T703" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="U703" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V703" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-portuguesa-fc-monagas-sc/m2q15iznyl0ue76/h2h</t>
+          <t>https://www.aiscore.com/match-yaracuyanos-carabobo/oj7x9ix3gpwh47g/h2h</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -54802,12 +54810,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Portuguesa FC</t>
+          <t>Yaracuyanos</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Monagas SC</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
@@ -54822,7 +54830,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="H704" t="inlineStr"/>
@@ -54836,20 +54844,20 @@
         <v>2.25</v>
       </c>
       <c r="L704" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
       <c r="N704" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O704" t="inlineStr"/>
       <c r="P704" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q704" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -54857,22 +54865,22 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="T704" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U704" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V704" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>https://www.aiscore.com/match-academia-puerto-cabello-zamora-barinas/zrkn6i4ny6mbwql/h2h</t>
+          <t>https://www.aiscore.com/match-metropolitanos-fc-academia-anzoategui/xvkjoi8xwp6h879/h2h</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -54882,17 +54890,17 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Metropolitanos FC</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Zamora Barinas</t>
+          <t>Academia Anzoategui</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>07/25/2025</t>
+          <t>07/24/2025</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -54913,7 +54921,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L705" t="n">
         <v>8.5</v>
@@ -54926,26 +54934,186 @@
       </c>
       <c r="O705" t="inlineStr"/>
       <c r="P705" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>6</v>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S705" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T705" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U705" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V705" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://www.aiscore.com/match-portuguesa-fc-monagas-sc/m2q15iznyl0ue76/h2h</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Venezuela Primera Division</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Portuguesa FC</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Monagas SC</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>07/24/2025</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L706" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M706" t="n">
+        <v>1</v>
+      </c>
+      <c r="N706" t="n">
+        <v>1</v>
+      </c>
+      <c r="O706" t="inlineStr"/>
+      <c r="P706" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q706" t="n">
+        <v>9</v>
+      </c>
+      <c r="R706" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S706" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T706" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U706" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V706" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://www.aiscore.com/match-academia-puerto-cabello-zamora-barinas/zrkn6i4ny6mbwql/h2h</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Venezuela Primera Division</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Zamora Barinas</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>07/25/2025</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L707" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M707" t="n">
+        <v>2</v>
+      </c>
+      <c r="N707" t="n">
+        <v>3</v>
+      </c>
+      <c r="O707" t="inlineStr"/>
+      <c r="P707" t="n">
         <v>7</v>
       </c>
-      <c r="Q705" t="n">
+      <c r="Q707" t="n">
         <v>9</v>
       </c>
-      <c r="R705" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S705" t="n">
-        <v>2</v>
-      </c>
-      <c r="T705" t="n">
+      <c r="R707" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="S707" t="n">
+        <v>2</v>
+      </c>
+      <c r="T707" t="n">
         <v>1.8</v>
       </c>
-      <c r="U705" t="n">
+      <c r="U707" t="n">
         <v>2.1</v>
       </c>
-      <c r="V705" t="n">
+      <c r="V707" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -47288,25 +47288,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S609" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="T609" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="U609" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V609" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="S609" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T609" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U609" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -47376,25 +47368,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S610" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="T610" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="U610" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V610" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="S610" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T610" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U610" t="n">
+        <v>2</v>
+      </c>
+      <c r="V610" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="611">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -19740,25 +19740,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S250" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="T250" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="U250" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V250" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="S250" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V250" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="251">
@@ -43776,25 +43768,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S564" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="T564" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="U564" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V564" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+      <c r="S564" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T564" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U564" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V564" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="565">
@@ -43856,25 +43840,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="S565" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="T565" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="U565" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V565" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+      <c r="S565" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T565" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U565" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V565" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="566">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -10858,15 +10858,11 @@
           <t>1.85</t>
         </is>
       </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V134" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="U134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -56662,15 +56658,11 @@
           <t>2.00</t>
         </is>
       </c>
-      <c r="U725" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V725" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="U725" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V725" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="726">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -63054,15 +63054,11 @@
           <t>1.90</t>
         </is>
       </c>
-      <c r="U806" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V806" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="U806" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V806" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="807">
@@ -63142,15 +63138,11 @@
           <t>1.82</t>
         </is>
       </c>
-      <c r="U807" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="V807" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
+      <c r="U807" t="n">
+        <v>2</v>
+      </c>
+      <c r="V807" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="808">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -4214,15 +4214,11 @@
           <t>1.92</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="U49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -27314,15 +27314,11 @@
           <t>2.00</t>
         </is>
       </c>
-      <c r="U345" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V345" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+      <c r="U345" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V345" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="346">
@@ -34162,15 +34158,11 @@
           <t>1.82</t>
         </is>
       </c>
-      <c r="U433" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V433" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="U433" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V433" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="434">
@@ -60030,15 +60022,11 @@
           <t>1.85</t>
         </is>
       </c>
-      <c r="U763" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="V763" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+      <c r="U763" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V763" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="764">
@@ -60114,15 +60102,11 @@
           <t>1.97</t>
         </is>
       </c>
-      <c r="U764" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V764" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="U764" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -60198,15 +60182,11 @@
           <t>1.90</t>
         </is>
       </c>
-      <c r="U765" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V765" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="U765" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="766">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -15586,15 +15586,11 @@
           <t>1.82</t>
         </is>
       </c>
-      <c r="U195" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="V195" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
+      <c r="U195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V195" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="196">
@@ -15670,15 +15666,11 @@
           <t>1.90</t>
         </is>
       </c>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V196" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
+      <c r="U196" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="197">
@@ -34498,15 +34490,11 @@
           <t>1.80</t>
         </is>
       </c>
-      <c r="U437" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V437" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="U437" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="438">

--- a/public/Horizon Records.xlsx
+++ b/public/Horizon Records.xlsx
@@ -27646,15 +27646,11 @@
           <t>1.82</t>
         </is>
       </c>
-      <c r="U349" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="V349" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="U349" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -34742,15 +34738,11 @@
           <t>2.02</t>
         </is>
       </c>
-      <c r="U440" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V440" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
+      <c r="U440" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V440" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="441">
